--- a/results/psd_random_seed42_batchsize256.xlsx
+++ b/results/psd_random_seed42_batchsize256.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\huangzhiying\cross-video-emotion-recognition\cross-video-emotion-recognition\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5655C141-9917-4AB9-A7BE-AB35F6CC85F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4488D1-12B0-4ABA-8366-8FA5DAE39E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
   <si>
     <t>Content</t>
   </si>
@@ -538,7 +539,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -843,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -876,16 +877,16 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>0.30625000596046398</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>0.63333332538604703</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>0.46889952153109998</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>0.77551020408163196</v>
       </c>
       <c r="F2" t="s">
@@ -899,16 +900,16 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>0.41041666269302302</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>0.66354167461395197</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>0.58197932053175705</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>0.79774577332498398</v>
       </c>
       <c r="F3" t="s">
@@ -922,16 +923,16 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0.51588541269302302</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>0.71458333730697599</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>0.68063906545267105</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>0.83353584447144502</v>
       </c>
       <c r="F4" t="s">
@@ -945,16 +946,16 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>0.481510430574417</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>0.64947915077209395</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>0.650026366672525</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>0.78749605304704695</v>
       </c>
       <c r="F5" t="s">
@@ -968,16 +969,16 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>0.45260417461395203</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>0.64453125</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>0.62316242380781595</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>0.78384798099762398</v>
       </c>
       <c r="F6" t="s">
@@ -991,16 +992,16 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>0.41744792461395203</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>0.671875</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>0.58901341172147703</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>0.80373831775700899</v>
       </c>
       <c r="F7" t="s">
@@ -1014,16 +1015,16 @@
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>0.43489584326744002</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>0.64166665077209395</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>0.60617059891106995</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>0.781725888324873</v>
       </c>
       <c r="F8" t="s">
@@ -1037,16 +1038,16 @@
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>0.51406252384185702</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>0.67369788885116499</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>0.67905056759545901</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>0.80504123230122904</v>
       </c>
       <c r="F9" t="s">
@@ -1060,16 +1061,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>0.46562498807907099</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>0.64296877384185702</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>0.63539445628997804</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>0.78269139324774095</v>
       </c>
       <c r="F10" t="s">
@@ -1083,16 +1084,16 @@
       <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>0.42552083730697599</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>0.254947930574417</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>0.59700401899890299</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>0.40630836273085702</v>
       </c>
       <c r="F11" t="s">
@@ -1106,16 +1107,16 @@
       <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>0.45130208134651101</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>0.65338540077209395</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>0.62192714875291499</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>0.79036068672231796</v>
       </c>
       <c r="F12" t="s">
@@ -1129,16 +1130,16 @@
       <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>0.64817708730697599</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>0.67916667461395197</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>0.78653815768683799</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>0.808933002481389</v>
       </c>
       <c r="F13" t="s">
@@ -1152,16 +1153,16 @@
       <c r="A14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>0.44999998807907099</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>0.68151038885116499</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>0.62068965517241304</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>0.81059315471581195</v>
       </c>
       <c r="F14" t="s">
@@ -1175,16 +1176,16 @@
       <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>0.65598958730697599</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>0.59322917461395197</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>0.79226293442365103</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>0.74468780647270305</v>
       </c>
       <c r="F15" t="s">
@@ -1198,16 +1199,16 @@
       <c r="A16" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>0.61692708730697599</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>0.64010417461395197</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>0.76308584313093897</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>0.78056525881232097</v>
       </c>
       <c r="F16" t="s">
@@ -1221,16 +1222,16 @@
       <c r="A17" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>0.59921872615814198</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>0.65703123807907104</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>0.74938935026868503</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>0.79302215935879306</v>
       </c>
       <c r="F17" t="s">
@@ -1244,16 +1245,16 @@
       <c r="A18" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>0.60104167461395197</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>0.68020832538604703</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>0.75081327260897801</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>0.80967141971481704</v>
       </c>
       <c r="F18" t="s">
@@ -1267,16 +1268,16 @@
       <c r="A19" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>0.60651040077209395</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>0.60130208730697599</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>0.75506565083481902</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>0.75101642543503</v>
       </c>
       <c r="F19" t="s">
@@ -1290,16 +1291,16 @@
       <c r="A20" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>0.46848958730697599</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>0.68463540077209395</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>0.63805639297747796</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>0.81279950533312695</v>
       </c>
       <c r="F20" t="s">
@@ -1313,16 +1314,16 @@
       <c r="A21" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>0.51744788885116499</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>0.73046875</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>0.68199759739145305</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>0.84424379232505598</v>
       </c>
       <c r="F21" t="s">
@@ -1336,16 +1337,16 @@
       <c r="A22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>0.49557292461395203</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>0.2890625</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>0.66271983283997904</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>0.44848484848484799</v>
       </c>
       <c r="F22" t="s">
@@ -1359,16 +1360,16 @@
       <c r="A23" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>0.65208333730697599</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>0.3203125</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>0.78940731399747699</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>0.48520710059171501</v>
       </c>
       <c r="F23" t="s">
@@ -1382,16 +1383,16 @@
       <c r="A24" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>0.61119788885116499</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>0.27994790673255898</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>0.75868757071278403</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>0.43743641912512699</v>
       </c>
       <c r="F24" t="s">
@@ -1405,16 +1406,16 @@
       <c r="A25" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>0.64218747615814198</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>0.29609376192092801</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>0.78211227402473804</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>0.45690174804098799</v>
       </c>
       <c r="F25" t="s">
@@ -1428,16 +1429,16 @@
       <c r="A26" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>0.59505206346511796</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>0.33411458134651101</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>0.74612244897959101</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>0.50087839156744096</v>
       </c>
       <c r="F26" t="s">
@@ -1451,16 +1452,16 @@
       <c r="A27" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>0.60520833730697599</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>0.39479166269302302</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>0.75405580791693605</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>0.56609410007468197</v>
       </c>
       <c r="F27" t="s">
@@ -1474,16 +1475,16 @@
       <c r="A28" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>0.62708336114883401</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>0.52031248807907104</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>0.77080665813060101</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>0.68448098663926005</v>
       </c>
       <c r="F28" t="s">
@@ -1497,16 +1498,16 @@
       <c r="A29" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>0.59062498807907104</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>0.36666667461395203</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>0.74263261296660099</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>0.53658536585365801</v>
       </c>
       <c r="F29" t="s">
@@ -1520,16 +1521,16 @@
       <c r="A30" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>0.56276041269302302</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>0.31614583730697599</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>0.72021329778370202</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>0.48041155520379802</v>
       </c>
       <c r="F30" t="s">
@@ -1543,16 +1544,16 @@
       <c r="A31" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>0.80312502384185702</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>0.45781248807907099</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>0.89081455805892495</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>0.62808145766345103</v>
       </c>
       <c r="F31" t="s">
@@ -1566,16 +1567,16 @@
       <c r="A32" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>0.4296875</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>0.34348958730697599</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>0.60109289617486295</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>0.51133940686179402</v>
       </c>
       <c r="F32" t="s">
@@ -1589,16 +1590,16 @@
       <c r="A33" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>0.37473958730697599</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>0.336979180574417</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>0.54517901117635903</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>0.50409037787300304</v>
       </c>
       <c r="F33" t="s">
@@ -1612,16 +1613,16 @@
       <c r="A34" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>0.57708334922790505</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>0.28333333134651101</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>0.73183619550858603</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>0.44155844155844098</v>
       </c>
       <c r="F34" t="s">
@@ -1635,16 +1636,16 @@
       <c r="A35" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>0.38645833730697599</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>0.3828125</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>0.55747558226896998</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
         <v>0.55367231638418002</v>
       </c>
       <c r="F35" t="s">
@@ -1658,16 +1659,16 @@
       <c r="A36" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>0.35234373807907099</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>0.434635430574417</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>0.52108607741190005</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>0.60591758939916496</v>
       </c>
       <c r="F36" t="s">
@@ -1681,16 +1682,16 @@
       <c r="A37" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>0.37317708134651101</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>0.244531244039535</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>0.54352361084771394</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>0.39296924042686698</v>
       </c>
       <c r="F37" t="s">
@@ -1704,16 +1705,16 @@
       <c r="A38" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>0.46822917461395203</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>0.30989584326744002</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>0.63781482795317401</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>0.47316103379721602</v>
       </c>
       <c r="F38" t="s">
@@ -1727,16 +1728,16 @@
       <c r="A39" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>0.485416680574417</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>0.46510416269302302</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>0.65357643758765704</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>0.63490934944898603</v>
       </c>
       <c r="F39" t="s">
@@ -1750,16 +1751,16 @@
       <c r="A40" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>0.57161456346511796</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>0.24739582836627899</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>0.72742336371168104</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40">
         <v>0.39665970772442499</v>
       </c>
       <c r="F40" t="s">
@@ -1773,16 +1774,16 @@
       <c r="A41" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>0.45546874403953502</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>0.26718750596046398</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>0.62587224906065397</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
         <v>0.42170160295930897</v>
       </c>
       <c r="F41" t="s">
@@ -1805,5 +1806,686 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7EBB8F-9AB3-4658-88DD-2E9C299DCA46}">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0.30625000596046398</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.63333332538604703</v>
+      </c>
+      <c r="D2">
+        <f>ROUND(A2*100,2)</f>
+        <v>30.63</v>
+      </c>
+      <c r="E2">
+        <f>ROUND(B2*100,2)</f>
+        <v>63.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>0.41041666269302302</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.66354167461395197</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D42" si="0">ROUND(A3*100,2)</f>
+        <v>41.04</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E42" si="1">ROUND(B3*100,2)</f>
+        <v>66.349999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>0.51588541269302302</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.71458333730697599</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>51.59</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>71.459999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>0.481510430574417</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.64947915077209395</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>48.15</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>64.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>0.45260417461395203</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.64453125</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>45.26</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>64.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>0.41744792461395203</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.671875</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>41.74</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>67.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>0.43489584326744002</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.64166665077209395</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>43.49</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>64.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>0.51406252384185702</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.67369788885116499</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>51.41</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>67.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>0.46562498807907099</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.64296877384185702</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>46.56</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>0.42552083730697599</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.254947930574417</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>42.55</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>25.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>0.45130208134651101</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.65338540077209395</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>45.13</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>65.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>0.64817708730697599</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.67916667461395197</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>64.819999999999993</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>67.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>0.44999998807907099</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.68151038885116499</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>68.150000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>0.65598958730697599</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.59322917461395197</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>65.599999999999994</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>59.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>0.61692708730697599</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.64010417461395197</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>61.69</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>64.010000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>0.59921872615814198</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.65703123807907104</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>59.92</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>0.60104167461395197</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.68020832538604703</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>60.1</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>68.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>0.60651040077209395</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.60130208730697599</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>60.65</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>60.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>0.46848958730697599</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.68463540077209395</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>46.85</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>68.459999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>0.51744788885116499</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.73046875</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>51.74</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="1"/>
+        <v>73.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>0.49557292461395203</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.2890625</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>49.56</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>28.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>0.65208333730697599</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.3203125</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>65.209999999999994</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="1"/>
+        <v>32.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>0.61119788885116499</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.27994790673255898</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>61.12</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="1"/>
+        <v>27.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>0.64218747615814198</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.29609376192092801</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>64.22</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>29.61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>0.59505206346511796</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.33411458134651101</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>59.51</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="1"/>
+        <v>33.409999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>0.60520833730697599</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.39479166269302302</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>60.52</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="1"/>
+        <v>39.479999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>0.62708336114883401</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.52031248807907104</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>62.71</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="1"/>
+        <v>52.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>0.59062498807907104</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.36666667461395203</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>59.06</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="1"/>
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>0.56276041269302302</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.31614583730697599</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>56.28</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="1"/>
+        <v>31.61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>0.80312502384185702</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.45781248807907099</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>80.31</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="1"/>
+        <v>45.78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>0.4296875</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.34348958730697599</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>42.97</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="1"/>
+        <v>34.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>0.37473958730697599</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.336979180574417</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>37.47</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="1"/>
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>0.57708334922790505</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.28333333134651101</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>57.71</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="1"/>
+        <v>28.33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>0.38645833730697599</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.3828125</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>38.65</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="1"/>
+        <v>38.28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>0.35234373807907099</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.434635430574417</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>35.229999999999997</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="1"/>
+        <v>43.46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>0.37317708134651101</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.244531244039535</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>37.32</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="1"/>
+        <v>24.45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>0.46822917461395203</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.30989584326744002</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="0"/>
+        <v>46.82</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="1"/>
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>0.485416680574417</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.46510416269302302</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>48.54</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="1"/>
+        <v>46.51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>0.57161456346511796</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.24739582836627899</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>57.16</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="1"/>
+        <v>24.74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>0.45546874403953502</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.26718750596046398</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>45.55</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="1"/>
+        <v>26.72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>0.51746093705296503</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.49205729030072665</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>51.75</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="1"/>
+        <v>49.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>